--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="144">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,18 +43,15 @@
     <t>killed</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -67,319 +64,385 @@
     <t>low</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>us</t>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>market</t>
   </si>
   <si>
     <t>see</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
     <t>know</t>
   </si>
   <si>
-    <t>masks</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>keep</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>many</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>take</t>
-  </si>
-  <si>
     <t>prices</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>shelves</t>
   </si>
   <si>
     <t>people</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
     <t>go</t>
   </si>
   <si>
+    <t>workers</t>
+  </si>
+  <si>
     <t>going</t>
-  </si>
-  <si>
-    <t>workers</t>
   </si>
   <si>
     <t>food</t>
@@ -740,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,10 +811,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -830,28 +893,28 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9482758620689655</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -859,13 +922,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -877,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>0.9661016949152542</v>
+      </c>
+      <c r="L4">
+        <v>57</v>
+      </c>
+      <c r="M4">
+        <v>57</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4">
-        <v>0.8803418803418803</v>
-      </c>
-      <c r="L4">
-        <v>103</v>
-      </c>
-      <c r="M4">
-        <v>106</v>
-      </c>
-      <c r="N4">
-        <v>0.97</v>
-      </c>
-      <c r="O4">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -909,13 +972,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.6472602739726028</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -927,31 +990,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.8727272727272727</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M5">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -959,13 +1022,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6666666666666666</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -977,31 +1040,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8661417322834646</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1009,13 +1072,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6506849315068494</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C7">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1027,31 +1090,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8375</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L7">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="N7">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1059,13 +1122,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3466666666666667</v>
+        <v>0.2616279069767442</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1077,31 +1140,31 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>49</v>
+        <v>381</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8222222222222222</v>
+        <v>0.84375</v>
       </c>
       <c r="L8">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="N8">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1109,13 +1172,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.248062015503876</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="C9">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1127,31 +1190,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>388</v>
+        <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.7721518987341772</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="N9">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1159,263 +1222,167 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1818181818181818</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>131</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L10">
+        <v>27</v>
+      </c>
+      <c r="M10">
+        <v>27</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <v>50</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="L12">
+        <v>44</v>
+      </c>
+      <c r="M12">
+        <v>44</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>14</v>
       </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>63</v>
-      </c>
-      <c r="J10" s="1" t="s">
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>0.75625</v>
+      </c>
+      <c r="L13">
+        <v>121</v>
+      </c>
+      <c r="M13">
+        <v>121</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K10">
-        <v>0.7192982456140351</v>
-      </c>
-      <c r="L10">
-        <v>41</v>
-      </c>
-      <c r="M10">
-        <v>42</v>
-      </c>
-      <c r="N10">
-        <v>0.98</v>
-      </c>
-      <c r="O10">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1208053691275168</v>
-      </c>
-      <c r="C11">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>131</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11">
-        <v>0.7092198581560284</v>
-      </c>
-      <c r="L11">
-        <v>100</v>
-      </c>
-      <c r="M11">
-        <v>101</v>
-      </c>
-      <c r="N11">
-        <v>0.99</v>
-      </c>
-      <c r="O11">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.0962962962962963</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>218</v>
-      </c>
-      <c r="E12">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F12">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>122</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.7029702970297029</v>
-      </c>
-      <c r="L12">
-        <v>71</v>
-      </c>
-      <c r="M12">
-        <v>76</v>
-      </c>
-      <c r="N12">
-        <v>0.93</v>
-      </c>
-      <c r="O12">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.01195219123505976</v>
-      </c>
-      <c r="C13">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>407</v>
-      </c>
-      <c r="E13">
-        <v>0.95</v>
-      </c>
-      <c r="F13">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1736</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="L13">
-        <v>160</v>
-      </c>
-      <c r="M13">
-        <v>167</v>
-      </c>
-      <c r="N13">
-        <v>0.96</v>
-      </c>
-      <c r="O13">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.0119142176330421</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>619</v>
-      </c>
-      <c r="E14">
-        <v>0.95</v>
-      </c>
-      <c r="F14">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2488</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K14">
-        <v>0.6777777777777778</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L14">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.6666666666666666</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1427,47 +1394,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6269113149847095</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L16">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="M16">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>122</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6111111111111112</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1479,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.5957446808510638</v>
+        <v>0.6971830985915493</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1505,151 +1472,151 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.5564304461942258</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L19">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>169</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.5373134328358209</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N20">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.53125</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L21">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="N21">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>135</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.5227272727272727</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="M22">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N23">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.4705882352941176</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1661,125 +1628,125 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.4523809523809524</v>
+        <v>0.5744125326370757</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>23</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.4468085106382979</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.4375</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N27">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.4113924050632912</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L28">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="N28">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>93</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.3956043956043956</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1791,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.375</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1817,73 +1784,73 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.3714285714285714</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L31">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N31">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.3714285714285714</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L32">
+        <v>14</v>
+      </c>
+      <c r="M32">
+        <v>14</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>13</v>
-      </c>
-      <c r="M32">
-        <v>13</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>22</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.3684210526315789</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1895,41 +1862,41 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.3584905660377358</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="L34">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M34">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>136</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="L35">
         <v>14</v>
@@ -1947,47 +1914,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.343065693430657</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L36">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="N36">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>270</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3333333333333333</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1999,47 +1966,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.3209876543209876</v>
+        <v>0.375</v>
       </c>
       <c r="L38">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="N38">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.3130434782608696</v>
+        <v>0.375</v>
       </c>
       <c r="L39">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2051,73 +2018,73 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>0.3052631578947368</v>
+        <v>0.3739130434782609</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M40">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41">
+        <v>0.3626373626373626</v>
+      </c>
+      <c r="L41">
+        <v>33</v>
+      </c>
+      <c r="M41">
+        <v>33</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>58</v>
-      </c>
-      <c r="K41">
-        <v>0.3</v>
-      </c>
-      <c r="L41">
-        <v>18</v>
-      </c>
-      <c r="M41">
-        <v>19</v>
-      </c>
-      <c r="N41">
-        <v>0.95</v>
-      </c>
-      <c r="O41">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>42</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K42">
-        <v>0.2876712328767123</v>
+        <v>0.3608247422680412</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2129,21 +2096,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K43">
-        <v>0.2804878048780488</v>
+        <v>0.3581395348837209</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2155,21 +2122,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>59</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K44">
-        <v>0.2711864406779661</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2181,47 +2148,47 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K45">
-        <v>0.2611464968152866</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L45">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>116</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K46">
-        <v>0.2551020408163265</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="M46">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2233,177 +2200,177 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>73</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K47">
-        <v>0.2518518518518518</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L47">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M47">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K48">
-        <v>0.248062015503876</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L48">
+        <v>15</v>
+      </c>
+      <c r="M48">
+        <v>15</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>32</v>
-      </c>
-      <c r="M48">
-        <v>34</v>
-      </c>
-      <c r="N48">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O48">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>97</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K49">
-        <v>0.2452830188679245</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L49">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="N49">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>160</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K50">
-        <v>0.2451456310679612</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L50">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="M50">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>311</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K51">
-        <v>0.2406015037593985</v>
+        <v>0.3128834355828221</v>
       </c>
       <c r="L51">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="M51">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="N51">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K52">
-        <v>0.2394366197183098</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M52">
         <v>18</v>
       </c>
       <c r="N52">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K53">
-        <v>0.2380952380952381</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2415,21 +2382,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K54">
-        <v>0.2372881355932203</v>
+        <v>0.2977099236641221</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2441,47 +2408,47 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>45</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K55">
-        <v>0.2363636363636364</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="L55">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N55">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K56">
-        <v>0.2307692307692308</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L56">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2493,21 +2460,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K57">
-        <v>0.2236842105263158</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="L57">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2519,47 +2486,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K58">
-        <v>0.2164948453608248</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L58">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="N58">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>380</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K59">
-        <v>0.2130434782608696</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="L59">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2571,203 +2538,203 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>181</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K60">
-        <v>0.2103487064116985</v>
+        <v>0.2783505154639175</v>
       </c>
       <c r="L60">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="M60">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="N60">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>702</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K61">
-        <v>0.2061068702290076</v>
+        <v>0.2773722627737226</v>
       </c>
       <c r="L61">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M61">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N61">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K62">
-        <v>0.2054794520547945</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="L62">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M62">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>116</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K63">
-        <v>0.2032786885245902</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L63">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="N63">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>243</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K64">
-        <v>0.2021276595744681</v>
+        <v>0.270440251572327</v>
       </c>
       <c r="L64">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M64">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="N64">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K65">
-        <v>0.2012383900928792</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L65">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="N65">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>258</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K66">
-        <v>0.1994134897360704</v>
+        <v>0.2564935064935065</v>
       </c>
       <c r="L66">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M66">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N66">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>273</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K67">
-        <v>0.1940298507462687</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="L67">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M67">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2779,73 +2746,73 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>54</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K68">
-        <v>0.1919642857142857</v>
+        <v>0.2477064220183486</v>
       </c>
       <c r="L68">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="M68">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="N68">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>724</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="K69">
-        <v>0.1914202144946376</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="L69">
-        <v>589</v>
+        <v>25</v>
       </c>
       <c r="M69">
-        <v>619</v>
+        <v>25</v>
       </c>
       <c r="N69">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>2488</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K70">
-        <v>0.1878787878787879</v>
+        <v>0.2447552447552448</v>
       </c>
       <c r="L70">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M70">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2857,47 +2824,47 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="K71">
-        <v>0.1819038642789821</v>
+        <v>0.2427884615384615</v>
       </c>
       <c r="L71">
-        <v>386</v>
+        <v>101</v>
       </c>
       <c r="M71">
-        <v>407</v>
+        <v>101</v>
       </c>
       <c r="N71">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>1736</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K72">
-        <v>0.1794871794871795</v>
+        <v>0.2410714285714286</v>
       </c>
       <c r="L72">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M72">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2909,125 +2876,125 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K73">
-        <v>0.1752212389380531</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="L73">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="M73">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="N73">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>466</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K74">
-        <v>0.1688311688311688</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="L74">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M74">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N74">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K75">
-        <v>0.1682242990654206</v>
+        <v>0.2366255144032922</v>
       </c>
       <c r="L75">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="M75">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="N75">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>89</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K76">
-        <v>0.1658914728682171</v>
+        <v>0.2347826086956522</v>
       </c>
       <c r="L76">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="M76">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="N76">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>538</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K77">
-        <v>0.1637931034482759</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L77">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M77">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3039,21 +3006,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K78">
-        <v>0.1592920353982301</v>
+        <v>0.2263610315186246</v>
       </c>
       <c r="L78">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="M78">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3065,21 +3032,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>95</v>
+        <v>270</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K79">
-        <v>0.1584158415841584</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="L79">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M79">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3091,151 +3058,151 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K80">
-        <v>0.1576086956521739</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="L80">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M80">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N80">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>155</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K81">
-        <v>0.1574468085106383</v>
+        <v>0.2232415902140673</v>
       </c>
       <c r="L81">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="M81">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="N81">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>198</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K82">
-        <v>0.1545454545454545</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="L82">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M82">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N82">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>93</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K83">
-        <v>0.152</v>
+        <v>0.2158836689038031</v>
       </c>
       <c r="L83">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="M83">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="N83">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>106</v>
+        <v>701</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K84">
-        <v>0.146551724137931</v>
+        <v>0.2155172413793103</v>
       </c>
       <c r="L84">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M84">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N84">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K85">
-        <v>0.1460674157303371</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="L85">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="M85">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3247,73 +3214,73 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>228</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K86">
-        <v>0.1349693251533742</v>
+        <v>0.2100840336134454</v>
       </c>
       <c r="L86">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M86">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N86">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>141</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K87">
-        <v>0.1348837209302326</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="L87">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M87">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="N87">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>744</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K88">
-        <v>0.1346153846153846</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="L88">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M88">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3325,47 +3292,47 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K89">
-        <v>0.1338582677165354</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="L89">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M89">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N89">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>110</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K90">
-        <v>0.1313868613138686</v>
+        <v>0.2031076581576027</v>
       </c>
       <c r="L90">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="M90">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3377,21 +3344,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>119</v>
+        <v>718</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K91">
-        <v>0.1284403669724771</v>
+        <v>0.2</v>
       </c>
       <c r="L91">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M91">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3403,21 +3370,21 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>95</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K92">
-        <v>0.1162790697674419</v>
+        <v>0.1997200186654223</v>
       </c>
       <c r="L92">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="M92">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3429,21 +3396,21 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>152</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K93">
-        <v>0.1129032258064516</v>
+        <v>0.1992275506919858</v>
       </c>
       <c r="L93">
-        <v>14</v>
+        <v>619</v>
       </c>
       <c r="M93">
-        <v>14</v>
+        <v>619</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3455,99 +3422,99 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>110</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K94">
-        <v>0.1116071428571429</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L94">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M94">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N94">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>199</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K95">
-        <v>0.1094890510948905</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L95">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M95">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N95">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>122</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K96">
-        <v>0.1094386955158357</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="L96">
-        <v>349</v>
+        <v>23</v>
       </c>
       <c r="M96">
-        <v>361</v>
+        <v>23</v>
       </c>
       <c r="N96">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>2840</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K97">
-        <v>0.1067615658362989</v>
+        <v>0.1769911504424779</v>
       </c>
       <c r="L97">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M97">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3559,21 +3526,21 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>251</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K98">
-        <v>0.1015625</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L98">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M98">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3585,99 +3552,99 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>115</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K99">
-        <v>0.08138528138528138</v>
+        <v>0.1728395061728395</v>
       </c>
       <c r="L99">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M99">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N99">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>1061</v>
+        <v>469</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K100">
-        <v>0.07878787878787878</v>
+        <v>0.1704545454545454</v>
       </c>
       <c r="L100">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M100">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N100">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O100">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>152</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K101">
-        <v>0.07393715341959335</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="L101">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M101">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N101">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>501</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K102">
-        <v>0.0718954248366013</v>
+        <v>0.1676923076923077</v>
       </c>
       <c r="L102">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="M102">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3689,73 +3656,73 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>284</v>
+        <v>541</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K103">
-        <v>0.07111111111111111</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="L103">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M103">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N103">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>209</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K104">
-        <v>0.07002801120448179</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="L104">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M104">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N104">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O104">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>332</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K105">
-        <v>0.06086956521739131</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="L105">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M105">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3767,21 +3734,21 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>216</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K106">
-        <v>0.06</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="L106">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M106">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3793,33 +3760,605 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>282</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K107">
+        <v>0.1476355247981546</v>
+      </c>
+      <c r="L107">
+        <v>128</v>
+      </c>
+      <c r="M107">
+        <v>128</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="108" spans="10:17">
+      <c r="J108" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K107">
-        <v>0.04597701149425287</v>
-      </c>
-      <c r="L107">
-        <v>44</v>
-      </c>
-      <c r="M107">
-        <v>55</v>
-      </c>
-      <c r="N107">
-        <v>0.8</v>
-      </c>
-      <c r="O107">
-        <v>0.2</v>
-      </c>
-      <c r="P107" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q107">
-        <v>913</v>
+      <c r="K108">
+        <v>0.1460674157303371</v>
+      </c>
+      <c r="L108">
+        <v>13</v>
+      </c>
+      <c r="M108">
+        <v>13</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="10:17">
+      <c r="J109" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K109">
+        <v>0.1395348837209302</v>
+      </c>
+      <c r="L109">
+        <v>24</v>
+      </c>
+      <c r="M109">
+        <v>24</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="10:17">
+      <c r="J110" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K110">
+        <v>0.1395348837209302</v>
+      </c>
+      <c r="L110">
+        <v>18</v>
+      </c>
+      <c r="M110">
+        <v>18</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="10:17">
+      <c r="J111" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K111">
+        <v>0.1341463414634146</v>
+      </c>
+      <c r="L111">
+        <v>22</v>
+      </c>
+      <c r="M111">
+        <v>22</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="10:17">
+      <c r="J112" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K112">
+        <v>0.1240875912408759</v>
+      </c>
+      <c r="L112">
+        <v>17</v>
+      </c>
+      <c r="M112">
+        <v>17</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="10:17">
+      <c r="J113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K113">
+        <v>0.1209677419354839</v>
+      </c>
+      <c r="L113">
+        <v>15</v>
+      </c>
+      <c r="M113">
+        <v>15</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="10:17">
+      <c r="J114" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K114">
+        <v>0.119650109340831</v>
+      </c>
+      <c r="L114">
+        <v>383</v>
+      </c>
+      <c r="M114">
+        <v>383</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K115">
+        <v>0.1171875</v>
+      </c>
+      <c r="L115">
+        <v>15</v>
+      </c>
+      <c r="M115">
+        <v>15</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K116">
+        <v>0.1159420289855072</v>
+      </c>
+      <c r="L116">
+        <v>16</v>
+      </c>
+      <c r="M116">
+        <v>16</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="10:17">
+      <c r="J117" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K117">
+        <v>0.1145374449339207</v>
+      </c>
+      <c r="L117">
+        <v>26</v>
+      </c>
+      <c r="M117">
+        <v>26</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="10:17">
+      <c r="J118" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K118">
+        <v>0.109375</v>
+      </c>
+      <c r="L118">
+        <v>14</v>
+      </c>
+      <c r="M118">
+        <v>14</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="10:17">
+      <c r="J119" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K119">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="L119">
+        <v>24</v>
+      </c>
+      <c r="M119">
+        <v>24</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="10:17">
+      <c r="J120" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K120">
+        <v>0.1048387096774194</v>
+      </c>
+      <c r="L120">
+        <v>13</v>
+      </c>
+      <c r="M120">
+        <v>13</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="10:17">
+      <c r="J121" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K121">
+        <v>0.103202846975089</v>
+      </c>
+      <c r="L121">
+        <v>29</v>
+      </c>
+      <c r="M121">
+        <v>29</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="122" spans="10:17">
+      <c r="J122" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K122">
+        <v>0.09388458225667529</v>
+      </c>
+      <c r="L122">
+        <v>109</v>
+      </c>
+      <c r="M122">
+        <v>109</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="123" spans="10:17">
+      <c r="J123" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K123">
+        <v>0.08496732026143791</v>
+      </c>
+      <c r="L123">
+        <v>26</v>
+      </c>
+      <c r="M123">
+        <v>26</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="124" spans="10:17">
+      <c r="J124" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K124">
+        <v>0.08433734939759036</v>
+      </c>
+      <c r="L124">
+        <v>14</v>
+      </c>
+      <c r="M124">
+        <v>14</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="10:17">
+      <c r="J125" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K125">
+        <v>0.07706422018348624</v>
+      </c>
+      <c r="L125">
+        <v>42</v>
+      </c>
+      <c r="M125">
+        <v>42</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="126" spans="10:17">
+      <c r="J126" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K126">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="L126">
+        <v>24</v>
+      </c>
+      <c r="M126">
+        <v>24</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="127" spans="10:17">
+      <c r="J127" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K127">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="L127">
+        <v>20</v>
+      </c>
+      <c r="M127">
+        <v>20</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="128" spans="10:17">
+      <c r="J128" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K128">
+        <v>0.05652173913043478</v>
+      </c>
+      <c r="L128">
+        <v>13</v>
+      </c>
+      <c r="M128">
+        <v>13</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="129" spans="10:17">
+      <c r="J129" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K129">
+        <v>0.05578512396694215</v>
+      </c>
+      <c r="L129">
+        <v>54</v>
+      </c>
+      <c r="M129">
+        <v>54</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>914</v>
       </c>
     </row>
   </sheetData>
